--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2402.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2402.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070087302323419</v>
+        <v>1.185770869255066</v>
       </c>
       <c r="B1">
-        <v>2.299596860878936</v>
+        <v>2.340942144393921</v>
       </c>
       <c r="C1">
-        <v>7.46316140124427</v>
+        <v>5.004730224609375</v>
       </c>
       <c r="D1">
-        <v>1.794496660697533</v>
+        <v>2.416975259780884</v>
       </c>
       <c r="E1">
-        <v>0.98866443467009</v>
+        <v>1.219061255455017</v>
       </c>
     </row>
   </sheetData>
